--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/op-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82306917-79DB-CD44-9A4C-27580B7EF191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C3252-CB30-C04C-B67D-3B3400C65431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="9160" windowWidth="32560" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>b0a8c4ec-3951-4ac8-8b98-e431fa7769a0</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -399,11 +411,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -446,8 +478,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M22"/>
+  <dimension ref="A3:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -763,9 +801,9 @@
     <col min="3" max="3" width="28.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -775,20 +813,21 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -805,13 +844,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" s="1"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -828,13 +872,18 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="I5" s="1"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -850,12 +899,17 @@
       <c r="E6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
@@ -871,12 +925,17 @@
       <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7" s="11"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -892,12 +951,17 @@
       <c r="E8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -913,12 +977,17 @@
       <c r="E9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="11"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -934,12 +1003,17 @@
       <c r="E10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
@@ -955,12 +1029,17 @@
       <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="19" customFormat="1">
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="19" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
@@ -976,17 +1055,20 @@
       <c r="E12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="17"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -1002,12 +1084,17 @@
       <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="11"/>
+      <c r="I13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -1023,12 +1110,17 @@
       <c r="E14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -1044,12 +1136,17 @@
       <c r="E15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="11"/>
+      <c r="I15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
@@ -1065,12 +1162,17 @@
       <c r="E16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
@@ -1086,12 +1188,17 @@
       <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
@@ -1107,12 +1214,17 @@
       <c r="E18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
@@ -1128,12 +1240,17 @@
       <c r="E19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
         <v>65</v>
       </c>
@@ -1149,12 +1266,17 @@
       <c r="E20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
@@ -1170,12 +1292,17 @@
       <c r="E21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
@@ -1191,14 +1318,19 @@
       <c r="E22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="1"/>
+      <c r="N22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/op-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/op-rule.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C3252-CB30-C04C-B67D-3B3400C65431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFD9804-80D7-EA49-876C-F9DFB01389CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="9160" windowWidth="32560" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48300" yWindow="-4520" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI-LIST" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -281,6 +281,14 @@
   </si>
   <si>
     <t>FLOW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理顺序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiSort</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -478,14 +486,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N22"/>
+  <dimension ref="A3:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.83203125" defaultRowHeight="21"/>
@@ -803,8 +811,8 @@
     <col min="5" max="5" width="29.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -813,21 +821,22 @@
     <col min="15" max="16384" width="119.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -850,12 +859,16 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -878,12 +891,16 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -899,17 +916,21 @@
       <c r="E6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
@@ -925,17 +946,21 @@
       <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="1"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -951,17 +976,21 @@
       <c r="E8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -977,17 +1006,21 @@
       <c r="E9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="1"/>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1003,17 +1036,21 @@
       <c r="E10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
@@ -1029,17 +1066,21 @@
       <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" s="19" customFormat="1">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="19" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
@@ -1055,20 +1096,23 @@
       <c r="E12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I12" s="17"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -1084,17 +1128,21 @@
       <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -1110,17 +1158,21 @@
       <c r="E14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -1136,17 +1188,21 @@
       <c r="E15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
@@ -1162,17 +1218,21 @@
       <c r="E16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="1"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
@@ -1188,17 +1248,21 @@
       <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="1"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
@@ -1214,17 +1278,21 @@
       <c r="E18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="1"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
@@ -1240,17 +1308,21 @@
       <c r="E19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="11">
+        <v>1010</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="8" t="s">
         <v>65</v>
       </c>
@@ -1266,17 +1338,21 @@
       <c r="E20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="11">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="1"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
@@ -1292,17 +1368,21 @@
       <c r="E21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="11">
+        <v>1020</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="1"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
@@ -1318,19 +1398,23 @@
       <c r="E22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="17">
+        <v>1025</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="1"/>
       <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
